--- a/Szakszeminárium/Test cases/test22024/funkcionális tesztek test22024.xlsx
+++ b/Szakszeminárium/Test cases/test22024/funkcionális tesztek test22024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cronus\Documents\Szakszeminárium\Test cases\test22024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Szakdolgozat\Szakszeminárium\Test cases\test22024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18CB6517-9B6C-4EA3-8178-DBF39A5EA9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F827564E-9027-4BCB-91D7-5904341EB316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ADF5D23C-952F-4674-9ADF-8963933EE5BA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADF5D23C-952F-4674-9ADF-8963933EE5BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Dokumentum előkészítés" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
   <si>
     <t>A teszt célja a dokumentum előkészítés funkciótesztje több dokumentum esetén</t>
   </si>
@@ -265,13 +265,16 @@
   </si>
   <si>
     <t>Háttérszín eltünt, helyes a hivatkozás. Eddig tárolt hibák számláló 4-et mutat.</t>
+  </si>
+  <si>
+    <t>2. futtatás</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,13 +282,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -326,10 +353,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -344,9 +373,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,7 +395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -660,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3885014C-EB49-42D1-A490-C027F0332AF9}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +702,7 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -687,6 +721,9 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -698,7 +735,10 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -712,7 +752,10 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -726,7 +769,10 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -740,7 +786,10 @@
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -754,7 +803,10 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -768,7 +820,10 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -782,7 +837,10 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -796,7 +854,10 @@
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -810,7 +871,10 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -824,7 +888,10 @@
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -838,10 +905,10 @@
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -855,7 +922,7 @@
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -892,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412C67B2-6D5B-48D6-95F1-81038E727A11}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +1004,7 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -951,7 +1018,7 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -965,7 +1032,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -979,7 +1046,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -993,7 +1060,7 @@
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1007,7 +1074,7 @@
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1021,7 +1088,7 @@
       <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1035,10 +1102,10 @@
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1052,10 +1119,10 @@
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1069,10 +1136,10 @@
       <c r="C13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1086,10 +1153,10 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1103,10 +1170,10 @@
       <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1120,10 +1187,10 @@
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1137,10 +1204,10 @@
       <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1154,7 +1221,7 @@
       <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1168,10 +1235,10 @@
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1185,7 +1252,7 @@
       <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1201,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B643082-18C9-4CB0-AA82-F1F5DDB0904E}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1313,7 @@
       <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1260,7 +1327,7 @@
       <c r="C5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1274,7 +1341,7 @@
       <c r="C6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1288,7 +1355,7 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1302,7 +1369,7 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1316,7 +1383,7 @@
       <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1330,7 +1397,7 @@
       <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1344,7 +1411,7 @@
       <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1358,7 +1425,7 @@
       <c r="C12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1372,7 +1439,7 @@
       <c r="C13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>73</v>
       </c>
     </row>
